--- a/DEWSapp/dewsdocs/DATAsst.xlsx
+++ b/DEWSapp/dewsdocs/DATAsst.xlsx
@@ -2372,15 +2372,123 @@
       <c r="A47" s="2" t="n">
         <v>2026</v>
       </c>
+      <c r="B47" t="n">
+        <v>28.78</v>
+      </c>
+      <c r="C47" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="D47" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="E47" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="F47" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="G47" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="H47" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="I47" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="J47" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="K47" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="L47" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="M47" t="n">
+        <v>28.94</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
         <v>2027</v>
       </c>
+      <c r="B48" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C48" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="D48" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="E48" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="F48" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="G48" t="n">
+        <v>27.93</v>
+      </c>
+      <c r="H48" t="n">
+        <v>27.41</v>
+      </c>
+      <c r="I48" t="n">
+        <v>25.37</v>
+      </c>
+      <c r="J48" t="n">
+        <v>26.29</v>
+      </c>
+      <c r="K48" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="L48" t="n">
+        <v>27.77</v>
+      </c>
+      <c r="M48" t="n">
+        <v>28.33</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
         <v>2028</v>
+      </c>
+      <c r="B49" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="C49" t="n">
+        <v>28.84</v>
+      </c>
+      <c r="D49" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="E49" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="F49" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="G49" t="n">
+        <v>27.65</v>
+      </c>
+      <c r="H49" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="I49" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="J49" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="K49" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="L49" t="n">
+        <v>28.13</v>
+      </c>
+      <c r="M49" t="n">
+        <v>28.08</v>
       </c>
     </row>
     <row r="50">

--- a/DEWSapp/dewsdocs/DATAsst.xlsx
+++ b/DEWSapp/dewsdocs/DATAsst.xlsx
@@ -2209,7 +2209,7 @@
         <v>2022</v>
       </c>
       <c r="B43" t="n">
-        <v>28.61505562872383</v>
+        <v>28.62</v>
       </c>
       <c r="C43" t="n">
         <v>28.84550813334518</v>

--- a/DEWSapp/dewsdocs/DATAsst.xlsx
+++ b/DEWSapp/dewsdocs/DATAsst.xlsx
@@ -2168,7 +2168,7 @@
         <v>2021</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>28.97125</v>
+        <v>28.31</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>29.74322679143801</v>
@@ -2495,10 +2495,82 @@
       <c r="A50" s="2" t="n">
         <v>2029</v>
       </c>
+      <c r="B50" t="n">
+        <v>28.05</v>
+      </c>
+      <c r="C50" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="D50" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E50" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="G50" t="n">
+        <v>27.54</v>
+      </c>
+      <c r="H50" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="I50" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="J50" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="K50" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="L50" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="M50" t="n">
+        <v>28.4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
         <v>2030</v>
+      </c>
+      <c r="B51" t="n">
+        <v>27.97</v>
+      </c>
+      <c r="C51" t="n">
+        <v>28.66</v>
+      </c>
+      <c r="D51" t="n">
+        <v>29.38</v>
+      </c>
+      <c r="E51" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="F51" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="G51" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="H51" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="I51" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="J51" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="K51" t="n">
+        <v>27.87</v>
+      </c>
+      <c r="L51" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="M51" t="n">
+        <v>28.1</v>
       </c>
     </row>
     <row r="52">

--- a/DEWSapp/dewsdocs/DATAsst.xlsx
+++ b/DEWSapp/dewsdocs/DATAsst.xlsx
@@ -2127,7 +2127,7 @@
         <v>2020</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>29.844375</v>
+        <v>29</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>30.006875</v>

--- a/DEWSapp/dewsdocs/DATAsst.xlsx
+++ b/DEWSapp/dewsdocs/DATAsst.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9810" windowWidth="11085" xWindow="10965" yWindow="945"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="10965" yWindow="945" windowWidth="11085" windowHeight="9810" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -57,25 +57,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2577,6 +2577,18 @@
       <c r="A52" s="2" t="n">
         <v>2031</v>
       </c>
+      <c r="B52" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="C52" t="n">
+        <v>28.02</v>
+      </c>
+      <c r="D52" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="E52" t="n">
+        <v>29.12</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2674,6 +2686,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>